--- a/Test sentences CUT and NORMALIZED/Test distribution.xlsx
+++ b/Test sentences CUT and NORMALIZED/Test distribution.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Setup" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="65">
   <si>
     <t>Block 1</t>
   </si>
@@ -99,6 +101,126 @@
   </si>
   <si>
     <t>mening05_02</t>
+  </si>
+  <si>
+    <t>Understood sentence</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>mening02-02</t>
+  </si>
+  <si>
+    <t>mening02-04</t>
+  </si>
+  <si>
+    <t>… tunnelbana</t>
+  </si>
+  <si>
+    <t>… buskarna</t>
+  </si>
+  <si>
+    <t>Snabbt till marken</t>
+  </si>
+  <si>
+    <t>Hur var det i skolan igår?</t>
+  </si>
+  <si>
+    <t>Ursäkta har du biljetten?</t>
+  </si>
+  <si>
+    <t>… tillkalla polisen</t>
+  </si>
+  <si>
+    <t>handduken låg på golvet</t>
+  </si>
+  <si>
+    <t>tjuren jagade mannen</t>
+  </si>
+  <si>
+    <t>grannen knackade på dörren</t>
+  </si>
+  <si>
+    <t>brevlådan är nyligen tömd</t>
+  </si>
+  <si>
+    <t>mamma skakade på huvudet</t>
+  </si>
+  <si>
+    <t>den gamla damen drog barnvagnen</t>
+  </si>
+  <si>
+    <t>dom nya skorna var trånga</t>
+  </si>
+  <si>
+    <t>kappan hänger i garderoben</t>
+  </si>
+  <si>
+    <t>solen lyste genom molnen</t>
+  </si>
+  <si>
+    <t>han bar på ett paraply</t>
+  </si>
+  <si>
+    <t>de går snabbt genom parken</t>
+  </si>
+  <si>
+    <t>någon gömmer sig i buskarna</t>
+  </si>
+  <si>
+    <t>kyparen tände ljusen</t>
+  </si>
+  <si>
+    <t>kvinnan halkade på isen</t>
+  </si>
+  <si>
+    <t>flickan började skolan igår</t>
+  </si>
+  <si>
+    <t>de köpte några biljetter</t>
+  </si>
+  <si>
+    <t>sköterskan hjälpte barnet</t>
+  </si>
+  <si>
+    <t>doktorn bar en svart väska</t>
+  </si>
+  <si>
+    <t>comprehensibility</t>
+  </si>
+  <si>
+    <t>pleasantness</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>26-30</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>21-25</t>
   </si>
 </sst>
 </file>
@@ -427,8 +549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,4 +916,666 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL3">
+        <v>4</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP3">
+        <v>5</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT3">
+        <v>4</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX3">
+        <v>4</v>
+      </c>
+      <c r="AY3">
+        <v>2</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>2</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF3">
+        <v>4</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>2</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ3">
+        <v>2</v>
+      </c>
+      <c r="BK3">
+        <v>3</v>
+      </c>
+      <c r="BL3">
+        <v>2</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN3">
+        <v>5</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>2</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR3">
+        <v>3</v>
+      </c>
+      <c r="BS3">
+        <v>3</v>
+      </c>
+      <c r="BT3">
+        <v>2</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV3">
+        <v>3</v>
+      </c>
+      <c r="BW3">
+        <v>2</v>
+      </c>
+      <c r="BX3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test sentences CUT and NORMALIZED/Test distribution.xlsx
+++ b/Test sentences CUT and NORMALIZED/Test distribution.xlsx
@@ -10,7 +10,6 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="87">
   <si>
     <t>Block 1</t>
   </si>
@@ -221,13 +220,79 @@
   </si>
   <si>
     <t>21-25</t>
+  </si>
+  <si>
+    <t>Vad sager du?</t>
+  </si>
+  <si>
+    <t>hej på dig</t>
+  </si>
+  <si>
+    <t>hej hej</t>
+  </si>
+  <si>
+    <t>står</t>
+  </si>
+  <si>
+    <t>skola går</t>
+  </si>
+  <si>
+    <t>norköpping</t>
+  </si>
+  <si>
+    <t>jag heter måns</t>
+  </si>
+  <si>
+    <t>Tjejen använder månen</t>
+  </si>
+  <si>
+    <t>Den man startade ...</t>
+  </si>
+  <si>
+    <t>Jag gillar dig vad vill du ha</t>
+  </si>
+  <si>
+    <t>I skolan har man tröja</t>
+  </si>
+  <si>
+    <t>Som har stenen är många</t>
+  </si>
+  <si>
+    <t>Han har pennorna med sig</t>
+  </si>
+  <si>
+    <t>Han går snabbt genom parken</t>
+  </si>
+  <si>
+    <t>vem gömmer sig i buskarna</t>
+  </si>
+  <si>
+    <t>Flickan började skolan igår</t>
+  </si>
+  <si>
+    <t>Jag har köpt en väska</t>
+  </si>
+  <si>
+    <t>Han köpte våra biljetter</t>
+  </si>
+  <si>
+    <t>Han tappade humöret</t>
+  </si>
+  <si>
+    <t>...månen</t>
+  </si>
+  <si>
+    <t>... viska</t>
+  </si>
+  <si>
+    <t>håll käften din jävel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +308,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,13 +347,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -552,9 +665,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -923,9 +1033,8 @@
   <dimension ref="A1:BX6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -983,595 +1092,1302 @@
     <col min="75" max="75" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:76" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:76" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AY2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BB2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BC2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BE2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BG2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BK2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BL2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BM2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BN2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BO2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BP2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BR2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BS2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BT2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BU2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BV2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BW2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BX2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:76" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3">
-        <v>5</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>4</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3">
-        <v>5</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3">
-        <v>4</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL3">
-        <v>4</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>2</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP3">
-        <v>5</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>2</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="5">
+        <v>4</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>3</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="5">
+        <v>4</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AT3">
-        <v>4</v>
-      </c>
-      <c r="AU3">
-        <v>2</v>
-      </c>
-      <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AT3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AX3">
-        <v>4</v>
-      </c>
-      <c r="AY3">
-        <v>2</v>
-      </c>
-      <c r="AZ3">
-        <v>2</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB3">
-        <v>3</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>2</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="AX3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BF3">
-        <v>4</v>
-      </c>
-      <c r="BG3">
-        <v>2</v>
-      </c>
-      <c r="BH3">
-        <v>2</v>
-      </c>
-      <c r="BI3" t="s">
+      <c r="BF3" s="5">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BJ3">
-        <v>2</v>
-      </c>
-      <c r="BK3">
-        <v>3</v>
-      </c>
-      <c r="BL3">
-        <v>2</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BN3">
-        <v>5</v>
-      </c>
-      <c r="BO3">
-        <v>1</v>
-      </c>
-      <c r="BP3">
-        <v>2</v>
-      </c>
-      <c r="BQ3" t="s">
+      <c r="BJ3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN3" s="5">
+        <v>5</v>
+      </c>
+      <c r="BO3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BR3">
-        <v>3</v>
-      </c>
-      <c r="BS3">
-        <v>3</v>
-      </c>
-      <c r="BT3">
-        <v>2</v>
-      </c>
-      <c r="BU3" t="s">
+      <c r="BR3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BS3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BT3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="BV3">
-        <v>3</v>
-      </c>
-      <c r="BW3">
-        <v>2</v>
-      </c>
-      <c r="BX3">
+      <c r="BV3" s="5">
+        <v>3</v>
+      </c>
+      <c r="BW3" s="5">
+        <v>2</v>
+      </c>
+      <c r="BX3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:76" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="5">
+        <v>4</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="6">
+        <v>5</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>4</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ4" s="5">
+        <v>4</v>
+      </c>
+      <c r="BK4" s="5">
+        <v>4</v>
+      </c>
+      <c r="BL4" s="6">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN4" s="5">
+        <v>5</v>
+      </c>
+      <c r="BO4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="6">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR4" s="5">
+        <v>4</v>
+      </c>
+      <c r="BS4" s="5">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="6">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV4" s="5">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="5">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:76" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" s="5">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BH5" s="6">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="6">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="6">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:76" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="5">
+        <v>4</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="5">
+        <v>4</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="6">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ6" s="5">
+        <v>4</v>
+      </c>
+      <c r="BK6" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL6" s="6">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN6" s="5">
+        <v>5</v>
+      </c>
+      <c r="BO6" s="5">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="6">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR6" s="5">
+        <v>4</v>
+      </c>
+      <c r="BS6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="6">
+        <v>3</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BW6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
